--- a/nmt/астатистика/p_15_39_94k.astanda.xlsx
+++ b/nmt/астатистика/p_15_39_94k.astanda.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="512">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">Плёночный</t>
   </si>
   <si>
-    <t xml:space="preserve">Иҽыруазҟьаны</t>
+    <t xml:space="preserve">Иҽыруазҟьаны </t>
   </si>
   <si>
     <t xml:space="preserve">Горделиво</t>
@@ -1574,7 +1574,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1608,6 +1608,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1709,13 +1716,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1762,16 +1777,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1891,7 +1902,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1905,122 +1916,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="C1 C3:C1048576 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="n">
+      <c r="D2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "OK")/250</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>0.964</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="9" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "A")/250</f>
-        <v>0</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "B")/250</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="12" t="n">
         <f aca="false">COUNTIF($C$9:$C$258, "C")/250</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="0" t="n">
         <v>19</v>
       </c>
@@ -2032,7 +2045,9 @@
       <c r="B10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="0" t="n">
         <v>19</v>
       </c>
@@ -2044,19 +2059,23 @@
       <c r="B11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="0" t="n">
         <v>19</v>
       </c>
@@ -2068,7 +2087,9 @@
       <c r="B13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="0" t="n">
         <v>19</v>
       </c>
@@ -2080,19 +2101,23 @@
       <c r="B14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="0" t="n">
         <v>19</v>
       </c>
@@ -2104,7 +2129,9 @@
       <c r="B16" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="0" t="n">
         <v>19</v>
       </c>
@@ -2116,7 +2143,9 @@
       <c r="B17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="0" t="n">
         <v>19</v>
       </c>
@@ -2128,7 +2157,9 @@
       <c r="B18" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="D18" s="0" t="n">
         <v>19</v>
       </c>
@@ -2140,7 +2171,9 @@
       <c r="B19" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="0" t="n">
         <v>19</v>
       </c>
@@ -2152,19 +2185,23 @@
       <c r="B20" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D20" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D21" s="0" t="n">
         <v>19</v>
       </c>
@@ -2176,7 +2213,9 @@
       <c r="B22" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D22" s="0" t="n">
         <v>19</v>
       </c>
@@ -2188,7 +2227,9 @@
       <c r="B23" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="0" t="n">
         <v>19</v>
       </c>
@@ -2200,7 +2241,9 @@
       <c r="B24" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="0" t="n">
         <v>19</v>
       </c>
@@ -2212,43 +2255,51 @@
       <c r="B25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D25" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D26" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="0" t="n">
         <v>19</v>
       </c>
@@ -2260,31 +2311,37 @@
       <c r="B29" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D29" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D30" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D31" s="0" t="n">
         <v>19</v>
       </c>
@@ -2296,7 +2353,9 @@
       <c r="B32" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" s="0" t="n">
         <v>19</v>
       </c>
@@ -2308,19 +2367,23 @@
       <c r="B33" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D33" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D34" s="0" t="n">
         <v>19</v>
       </c>
@@ -2332,7 +2395,9 @@
       <c r="B35" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D35" s="0" t="n">
         <v>19</v>
       </c>
@@ -2344,19 +2409,23 @@
       <c r="B36" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="13"/>
+      <c r="C36" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D37" s="0" t="n">
         <v>19</v>
       </c>
@@ -2368,67 +2437,79 @@
       <c r="B38" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D38" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="13"/>
+      <c r="C39" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D39" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D40" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D41" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="13"/>
+      <c r="C42" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D42" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D43" s="0" t="n">
         <v>19</v>
       </c>
@@ -2440,19 +2521,23 @@
       <c r="B44" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="13"/>
+      <c r="C44" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D44" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D45" s="0" t="n">
         <v>19</v>
       </c>
@@ -2464,43 +2549,51 @@
       <c r="B46" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D46" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="13"/>
+      <c r="C47" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D47" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="13"/>
+      <c r="C48" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D48" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D49" s="0" t="n">
         <v>19</v>
       </c>
@@ -2512,7 +2605,9 @@
       <c r="B50" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D50" s="0" t="n">
         <v>19</v>
       </c>
@@ -2524,19 +2619,23 @@
       <c r="B51" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="13"/>
+      <c r="C51" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D51" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="13"/>
+      <c r="C52" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D52" s="0" t="n">
         <v>19</v>
       </c>
@@ -2548,139 +2647,163 @@
       <c r="B53" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D53" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D54" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="13"/>
+      <c r="C55" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D56" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D57" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="13"/>
+      <c r="C58" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D58" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="13"/>
+      <c r="C59" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D59" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="13"/>
+      <c r="C60" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D60" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="13"/>
+      <c r="C61" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D61" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="13"/>
+      <c r="C62" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D62" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D63" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D64" s="0" t="n">
         <v>19</v>
       </c>
@@ -2692,43 +2815,51 @@
       <c r="B65" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C65" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="D65" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D66" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="13"/>
+      <c r="C67" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D67" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D68" s="0" t="n">
         <v>19</v>
       </c>
@@ -2740,19 +2871,23 @@
       <c r="B69" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D69" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D70" s="0" t="n">
         <v>19</v>
       </c>
@@ -2764,7 +2899,9 @@
       <c r="B71" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="13"/>
+      <c r="C71" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D71" s="0" t="n">
         <v>19</v>
       </c>
@@ -2776,7 +2913,9 @@
       <c r="B72" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D72" s="0" t="n">
         <v>19</v>
       </c>
@@ -2788,19 +2927,23 @@
       <c r="B73" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="13"/>
+      <c r="C73" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D73" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D74" s="0" t="n">
         <v>19</v>
       </c>
@@ -2812,67 +2955,79 @@
       <c r="B75" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D75" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="13"/>
+      <c r="C76" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D76" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="13"/>
+      <c r="C77" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D77" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="13"/>
+      <c r="C78" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D78" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D79" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D80" s="0" t="n">
         <v>19</v>
       </c>
@@ -2884,7 +3039,9 @@
       <c r="B81" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D81" s="0" t="n">
         <v>19</v>
       </c>
@@ -2896,7 +3053,9 @@
       <c r="B82" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D82" s="0" t="n">
         <v>19</v>
       </c>
@@ -2908,7 +3067,9 @@
       <c r="B83" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="13"/>
+      <c r="C83" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D83" s="0" t="n">
         <v>19</v>
       </c>
@@ -2920,43 +3081,51 @@
       <c r="B84" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="D84" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D85" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D86" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D87" s="0" t="n">
         <v>19</v>
       </c>
@@ -2968,55 +3137,65 @@
       <c r="B88" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="13"/>
+      <c r="C88" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D88" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="13"/>
+      <c r="C89" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D89" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="15" t="s">
         <v>176</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D90" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="15" t="s">
         <v>178</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D91" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="13"/>
+      <c r="C92" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D92" s="0" t="n">
         <v>19</v>
       </c>
@@ -3028,19 +3207,23 @@
       <c r="B93" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="13"/>
+      <c r="C93" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D93" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D94" s="0" t="n">
         <v>19</v>
       </c>
@@ -3052,19 +3235,23 @@
       <c r="B95" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="13"/>
+      <c r="C95" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D95" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="13"/>
+      <c r="C96" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D96" s="0" t="n">
         <v>19</v>
       </c>
@@ -3076,7 +3263,9 @@
       <c r="B97" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="13"/>
+      <c r="C97" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D97" s="0" t="n">
         <v>19</v>
       </c>
@@ -3088,7 +3277,9 @@
       <c r="B98" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D98" s="0" t="n">
         <v>19</v>
       </c>
@@ -3100,19 +3291,23 @@
       <c r="B99" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="D99" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D100" s="0" t="n">
         <v>19</v>
       </c>
@@ -3124,19 +3319,23 @@
       <c r="B101" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="13"/>
+      <c r="C101" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D101" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D102" s="0" t="n">
         <v>19</v>
       </c>
@@ -3148,43 +3347,51 @@
       <c r="B103" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="13"/>
+      <c r="C103" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D103" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="15" t="s">
         <v>204</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="13"/>
+      <c r="C104" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D104" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="13"/>
+      <c r="C105" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D105" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="13"/>
+      <c r="C106" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D106" s="0" t="n">
         <v>19</v>
       </c>
@@ -3196,43 +3403,51 @@
       <c r="B107" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D107" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="13"/>
+      <c r="C108" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D108" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="15" t="s">
         <v>214</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="13"/>
+      <c r="C109" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D109" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C110" s="13"/>
+      <c r="C110" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D110" s="0" t="n">
         <v>19</v>
       </c>
@@ -3244,7 +3459,9 @@
       <c r="B111" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="13"/>
+      <c r="C111" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D111" s="0" t="n">
         <v>19</v>
       </c>
@@ -3256,43 +3473,51 @@
       <c r="B112" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C112" s="13"/>
+      <c r="C112" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D112" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="15" t="s">
         <v>222</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C113" s="13"/>
+      <c r="C113" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D113" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="15" t="s">
         <v>224</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="C114" s="13"/>
+      <c r="C114" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D114" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="15" t="s">
         <v>226</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D115" s="0" t="n">
         <v>19</v>
       </c>
@@ -3304,67 +3529,79 @@
       <c r="B116" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C116" s="13"/>
+      <c r="C116" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D116" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="15" t="s">
         <v>230</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D117" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="15" t="s">
         <v>232</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="13"/>
+      <c r="C118" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D118" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="15" t="s">
         <v>234</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="13"/>
+      <c r="C119" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D119" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D120" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="15" t="s">
         <v>238</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="13"/>
+      <c r="C121" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D121" s="0" t="n">
         <v>19</v>
       </c>
@@ -3376,19 +3613,23 @@
       <c r="B122" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D122" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="15" t="s">
         <v>242</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="13"/>
+      <c r="C123" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D123" s="0" t="n">
         <v>19</v>
       </c>
@@ -3400,7 +3641,9 @@
       <c r="B124" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="13"/>
+      <c r="C124" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D124" s="0" t="n">
         <v>19</v>
       </c>
@@ -3412,19 +3655,23 @@
       <c r="B125" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="13"/>
+      <c r="C125" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D125" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="15" t="s">
         <v>248</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="13"/>
+      <c r="C126" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D126" s="0" t="n">
         <v>19</v>
       </c>
@@ -3436,7 +3683,9 @@
       <c r="B127" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="13"/>
+      <c r="C127" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D127" s="0" t="n">
         <v>19</v>
       </c>
@@ -3448,7 +3697,9 @@
       <c r="B128" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="13"/>
+      <c r="C128" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D128" s="0" t="n">
         <v>19</v>
       </c>
@@ -3460,19 +3711,23 @@
       <c r="B129" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="13"/>
+      <c r="C129" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D129" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="15" t="s">
         <v>256</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="C130" s="13"/>
+      <c r="C130" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D130" s="0" t="n">
         <v>19</v>
       </c>
@@ -3484,19 +3739,23 @@
       <c r="B131" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="13"/>
+      <c r="C131" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D131" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="15" t="s">
         <v>260</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="C132" s="13"/>
+      <c r="C132" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D132" s="0" t="n">
         <v>19</v>
       </c>
@@ -3508,7 +3767,9 @@
       <c r="B133" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="C133" s="13"/>
+      <c r="C133" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D133" s="0" t="n">
         <v>19</v>
       </c>
@@ -3520,7 +3781,9 @@
       <c r="B134" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="C134" s="13"/>
+      <c r="C134" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D134" s="0" t="n">
         <v>19</v>
       </c>
@@ -3532,7 +3795,9 @@
       <c r="B135" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C135" s="13"/>
+      <c r="C135" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D135" s="0" t="n">
         <v>19</v>
       </c>
@@ -3544,7 +3809,9 @@
       <c r="B136" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="C136" s="13"/>
+      <c r="C136" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D136" s="0" t="n">
         <v>19</v>
       </c>
@@ -3556,19 +3823,23 @@
       <c r="B137" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="C137" s="13"/>
+      <c r="C137" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D137" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="15" t="s">
         <v>272</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="C138" s="13"/>
+      <c r="C138" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D138" s="0" t="n">
         <v>23</v>
       </c>
@@ -3580,43 +3851,51 @@
       <c r="B139" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C139" s="13"/>
+      <c r="C139" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D139" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="15" t="s">
         <v>276</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="C140" s="13"/>
+      <c r="C140" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D140" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="15" t="s">
         <v>278</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C141" s="13"/>
+      <c r="C141" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D141" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="15" t="s">
         <v>280</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="C142" s="13"/>
+      <c r="C142" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D142" s="0" t="n">
         <v>19</v>
       </c>
@@ -3628,7 +3907,9 @@
       <c r="B143" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="13"/>
+      <c r="C143" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D143" s="0" t="n">
         <v>19</v>
       </c>
@@ -3640,19 +3921,23 @@
       <c r="B144" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="C144" s="13"/>
+      <c r="C144" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D144" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="15" t="s">
         <v>286</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="C145" s="13"/>
+      <c r="C145" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D145" s="0" t="n">
         <v>19</v>
       </c>
@@ -3664,55 +3949,65 @@
       <c r="B146" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C146" s="13"/>
+      <c r="C146" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D146" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="C147" s="13"/>
+      <c r="C147" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D147" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="C148" s="13"/>
+      <c r="C148" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D148" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="15" t="s">
         <v>294</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="C149" s="13"/>
+      <c r="C149" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D149" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="15" t="s">
         <v>296</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="C150" s="13"/>
+      <c r="C150" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D150" s="0" t="n">
         <v>19</v>
       </c>
@@ -3724,19 +4019,23 @@
       <c r="B151" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="C151" s="13"/>
+      <c r="C151" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D151" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="15" t="s">
         <v>300</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="C152" s="13"/>
+      <c r="C152" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D152" s="0" t="n">
         <v>19</v>
       </c>
@@ -3748,67 +4047,79 @@
       <c r="B153" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C153" s="13"/>
+      <c r="C153" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D153" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="15" t="s">
         <v>304</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="13"/>
+      <c r="C154" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D154" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="15" t="s">
         <v>306</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="13"/>
+      <c r="C155" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D155" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="15" t="s">
         <v>308</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="13"/>
+      <c r="C156" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D156" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="15" t="s">
         <v>310</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="C157" s="13"/>
+      <c r="C157" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D157" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="15" t="s">
         <v>312</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="13"/>
+      <c r="C158" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D158" s="0" t="n">
         <v>22</v>
       </c>
@@ -3820,7 +4131,9 @@
       <c r="B159" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="13"/>
+      <c r="C159" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D159" s="0" t="n">
         <v>19</v>
       </c>
@@ -3832,19 +4145,23 @@
       <c r="B160" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="C160" s="13"/>
+      <c r="C160" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D160" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="15" t="s">
         <v>318</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C161" s="13"/>
+      <c r="C161" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D161" s="0" t="n">
         <v>19</v>
       </c>
@@ -3856,7 +4173,9 @@
       <c r="B162" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="C162" s="13"/>
+      <c r="C162" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D162" s="0" t="n">
         <v>22</v>
       </c>
@@ -3868,7 +4187,9 @@
       <c r="B163" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="C163" s="13"/>
+      <c r="C163" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D163" s="0" t="n">
         <v>19</v>
       </c>
@@ -3880,7 +4201,9 @@
       <c r="B164" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="C164" s="13"/>
+      <c r="C164" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D164" s="0" t="n">
         <v>19</v>
       </c>
@@ -3892,31 +4215,37 @@
       <c r="B165" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C165" s="13"/>
+      <c r="C165" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D165" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="15" t="s">
         <v>328</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="C166" s="13"/>
+      <c r="C166" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D166" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="15" t="s">
         <v>330</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="C167" s="13"/>
+      <c r="C167" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D167" s="0" t="n">
         <v>19</v>
       </c>
@@ -3928,7 +4257,9 @@
       <c r="B168" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C168" s="13"/>
+      <c r="C168" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D168" s="0" t="n">
         <v>19</v>
       </c>
@@ -3940,7 +4271,9 @@
       <c r="B169" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C169" s="13"/>
+      <c r="C169" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D169" s="0" t="n">
         <v>19</v>
       </c>
@@ -3952,31 +4285,37 @@
       <c r="B170" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="C170" s="13"/>
+      <c r="C170" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D170" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="15" t="s">
         <v>338</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="C171" s="13"/>
+      <c r="C171" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D171" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="15" t="s">
         <v>340</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C172" s="13"/>
+      <c r="C172" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D172" s="0" t="n">
         <v>19</v>
       </c>
@@ -3988,19 +4327,23 @@
       <c r="B173" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="C173" s="13"/>
+      <c r="C173" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D173" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="15" t="s">
         <v>344</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C174" s="13"/>
+      <c r="C174" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D174" s="0" t="n">
         <v>19</v>
       </c>
@@ -4012,19 +4355,23 @@
       <c r="B175" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="C175" s="13"/>
+      <c r="C175" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D175" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="15" t="s">
         <v>348</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="13"/>
+      <c r="C176" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D176" s="0" t="n">
         <v>19</v>
       </c>
@@ -4036,19 +4383,23 @@
       <c r="B177" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="13"/>
+      <c r="C177" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D177" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="15" t="s">
         <v>352</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="C178" s="13"/>
+      <c r="C178" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D178" s="0" t="n">
         <v>19</v>
       </c>
@@ -4060,7 +4411,9 @@
       <c r="B179" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C179" s="13"/>
+      <c r="C179" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D179" s="0" t="n">
         <v>19</v>
       </c>
@@ -4072,7 +4425,9 @@
       <c r="B180" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="C180" s="13"/>
+      <c r="C180" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D180" s="0" t="n">
         <v>19</v>
       </c>
@@ -4084,79 +4439,93 @@
       <c r="B181" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="C181" s="13"/>
+      <c r="C181" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D181" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="15" t="s">
         <v>360</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="C182" s="13"/>
+      <c r="C182" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D182" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="15" t="s">
         <v>362</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C183" s="13"/>
+      <c r="C183" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D183" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="15" t="s">
         <v>364</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C184" s="13"/>
+      <c r="C184" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D184" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="15" t="s">
         <v>366</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="C185" s="13"/>
+      <c r="C185" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D185" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="15" t="s">
         <v>368</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="C186" s="13"/>
+      <c r="C186" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D186" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="15" t="s">
         <v>370</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="C187" s="13"/>
+      <c r="C187" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D187" s="0" t="n">
         <v>19</v>
       </c>
@@ -4168,7 +4537,9 @@
       <c r="B188" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="C188" s="13"/>
+      <c r="C188" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D188" s="0" t="n">
         <v>19</v>
       </c>
@@ -4180,31 +4551,37 @@
       <c r="B189" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="C189" s="13"/>
+      <c r="C189" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D189" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="15" t="s">
         <v>376</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="C190" s="13"/>
+      <c r="C190" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D190" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="15" t="s">
         <v>378</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="C191" s="13"/>
+      <c r="C191" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D191" s="0" t="n">
         <v>19</v>
       </c>
@@ -4216,19 +4593,23 @@
       <c r="B192" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C192" s="13"/>
+      <c r="C192" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D192" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="15" t="s">
         <v>382</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="C193" s="13"/>
+      <c r="C193" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D193" s="0" t="n">
         <v>19</v>
       </c>
@@ -4240,31 +4621,37 @@
       <c r="B194" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C194" s="13"/>
+      <c r="C194" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D194" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="C195" s="13"/>
+      <c r="C195" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D195" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="15" t="s">
         <v>388</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="C196" s="13"/>
+      <c r="C196" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D196" s="0" t="n">
         <v>19</v>
       </c>
@@ -4276,43 +4663,51 @@
       <c r="B197" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="C197" s="13"/>
+      <c r="C197" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D197" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="15" t="s">
         <v>392</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="C198" s="13"/>
+      <c r="C198" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D198" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="15" t="s">
         <v>394</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="C199" s="13"/>
+      <c r="C199" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D199" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="15" t="s">
         <v>396</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="C200" s="13"/>
+      <c r="C200" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D200" s="0" t="n">
         <v>19</v>
       </c>
@@ -4324,7 +4719,9 @@
       <c r="B201" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="C201" s="13"/>
+      <c r="C201" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D201" s="0" t="n">
         <v>19</v>
       </c>
@@ -4336,7 +4733,9 @@
       <c r="B202" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="C202" s="13"/>
+      <c r="C202" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D202" s="0" t="n">
         <v>19</v>
       </c>
@@ -4348,7 +4747,9 @@
       <c r="B203" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="C203" s="13"/>
+      <c r="C203" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D203" s="0" t="n">
         <v>19</v>
       </c>
@@ -4360,7 +4761,9 @@
       <c r="B204" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="C204" s="13"/>
+      <c r="C204" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D204" s="0" t="n">
         <v>19</v>
       </c>
@@ -4372,31 +4775,37 @@
       <c r="B205" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="C205" s="13"/>
+      <c r="C205" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D205" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="15" t="s">
         <v>408</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="C206" s="13"/>
+      <c r="C206" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D206" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="C207" s="13"/>
+      <c r="C207" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D207" s="0" t="n">
         <v>19</v>
       </c>
@@ -4408,7 +4817,9 @@
       <c r="B208" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="C208" s="13"/>
+      <c r="C208" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D208" s="0" t="n">
         <v>19</v>
       </c>
@@ -4420,55 +4831,65 @@
       <c r="B209" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C209" s="14"/>
+      <c r="C209" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D209" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="15" t="s">
         <v>416</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="C210" s="14"/>
+      <c r="C210" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D210" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="15" t="s">
         <v>418</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="C211" s="14"/>
+      <c r="C211" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D211" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="15" t="s">
         <v>420</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="C212" s="14"/>
+      <c r="C212" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D212" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="15" t="s">
         <v>422</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="C213" s="14"/>
+      <c r="C213" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D213" s="0" t="n">
         <v>19</v>
       </c>
@@ -4480,7 +4901,9 @@
       <c r="B214" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="C214" s="14"/>
+      <c r="C214" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D214" s="0" t="n">
         <v>19</v>
       </c>
@@ -4492,43 +4915,51 @@
       <c r="B215" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="C215" s="14"/>
+      <c r="C215" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D215" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="15" t="s">
         <v>428</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="C216" s="14"/>
+      <c r="C216" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D216" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="15" t="s">
         <v>430</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="C217" s="14"/>
+      <c r="C217" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D217" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="15" t="s">
         <v>432</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="C218" s="14"/>
+      <c r="C218" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D218" s="0" t="n">
         <v>19</v>
       </c>
@@ -4540,31 +4971,37 @@
       <c r="B219" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="C219" s="14"/>
+      <c r="C219" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D219" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="C220" s="14"/>
+      <c r="C220" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D220" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C221" s="14"/>
+      <c r="C221" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D221" s="0" t="n">
         <v>19</v>
       </c>
@@ -4576,43 +5013,51 @@
       <c r="B222" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C222" s="14"/>
+      <c r="C222" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D222" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="15" t="s">
         <v>441</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C223" s="14"/>
+      <c r="C223" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D223" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="15" t="s">
         <v>443</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="C224" s="14"/>
+      <c r="C224" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D224" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="15" t="s">
         <v>445</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C225" s="14"/>
+      <c r="C225" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D225" s="0" t="n">
         <v>19</v>
       </c>
@@ -4624,7 +5069,9 @@
       <c r="B226" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="C226" s="14"/>
+      <c r="C226" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D226" s="0" t="n">
         <v>19</v>
       </c>
@@ -4636,31 +5083,37 @@
       <c r="B227" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C227" s="14"/>
+      <c r="C227" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D227" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="15" t="s">
         <v>451</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="C228" s="14"/>
+      <c r="C228" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D228" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="15" t="s">
         <v>453</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C229" s="14"/>
+      <c r="C229" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D229" s="0" t="n">
         <v>19</v>
       </c>
@@ -4672,19 +5125,23 @@
       <c r="B230" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="C230" s="14"/>
+      <c r="C230" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D230" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="15" t="s">
         <v>457</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="C231" s="14"/>
+      <c r="C231" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D231" s="0" t="n">
         <v>19</v>
       </c>
@@ -4696,19 +5153,23 @@
       <c r="B232" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="C232" s="14"/>
+      <c r="C232" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="D232" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="15" t="s">
         <v>461</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C233" s="14"/>
+      <c r="C233" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D233" s="0" t="n">
         <v>19</v>
       </c>
@@ -4720,43 +5181,51 @@
       <c r="B234" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="C234" s="14"/>
+      <c r="C234" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D234" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="15" t="s">
         <v>465</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C235" s="14"/>
+      <c r="C235" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D235" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="15" t="s">
         <v>467</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="C236" s="14"/>
+      <c r="C236" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D236" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="15" t="s">
         <v>469</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="C237" s="14"/>
+      <c r="C237" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D237" s="0" t="n">
         <v>19</v>
       </c>
@@ -4768,7 +5237,9 @@
       <c r="B238" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="C238" s="14"/>
+      <c r="C238" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D238" s="0" t="n">
         <v>19</v>
       </c>
@@ -4780,31 +5251,37 @@
       <c r="B239" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="C239" s="14"/>
+      <c r="C239" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D239" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="15" t="s">
         <v>475</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C240" s="14"/>
+      <c r="C240" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D240" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="15" t="s">
         <v>477</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="C241" s="14"/>
+      <c r="C241" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D241" s="0" t="n">
         <v>19</v>
       </c>
@@ -4816,19 +5293,23 @@
       <c r="B242" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C242" s="14"/>
+      <c r="C242" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D242" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="15" t="s">
         <v>481</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C243" s="14"/>
+      <c r="C243" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D243" s="0" t="n">
         <v>19</v>
       </c>
@@ -4840,7 +5321,9 @@
       <c r="B244" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C244" s="14"/>
+      <c r="C244" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D244" s="0" t="n">
         <v>19</v>
       </c>
@@ -4852,7 +5335,9 @@
       <c r="B245" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="C245" s="14"/>
+      <c r="C245" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D245" s="0" t="n">
         <v>19</v>
       </c>
@@ -4864,67 +5349,79 @@
       <c r="B246" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="C246" s="14"/>
+      <c r="C246" s="16" t="s">
+        <v>7</v>
+      </c>
       <c r="D246" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="15" t="s">
         <v>489</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="C247" s="14"/>
+      <c r="C247" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D247" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="15" t="s">
         <v>491</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="C248" s="14"/>
+      <c r="C248" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D248" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="15" t="s">
         <v>493</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="C249" s="14"/>
+      <c r="C249" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D249" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+      <c r="A250" s="15" t="s">
         <v>495</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="C250" s="14"/>
+      <c r="C250" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D250" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="15" t="s">
         <v>497</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="C251" s="14"/>
+      <c r="C251" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D251" s="0" t="n">
         <v>19</v>
       </c>
@@ -4936,19 +5433,23 @@
       <c r="B252" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="C252" s="14"/>
+      <c r="C252" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D252" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="C253" s="14"/>
+      <c r="C253" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D253" s="0" t="n">
         <v>19</v>
       </c>
@@ -4960,19 +5461,23 @@
       <c r="B254" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="C254" s="14"/>
+      <c r="C254" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D254" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="15" t="s">
         <v>504</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="C255" s="14"/>
+      <c r="C255" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D255" s="0" t="n">
         <v>19</v>
       </c>
@@ -4984,7 +5489,9 @@
       <c r="B256" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C256" s="14"/>
+      <c r="C256" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D256" s="0" t="n">
         <v>19</v>
       </c>
@@ -4996,7 +5503,9 @@
       <c r="B257" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="C257" s="14"/>
+      <c r="C257" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D257" s="0" t="n">
         <v>19</v>
       </c>
@@ -5008,2235 +5517,2236 @@
       <c r="B258" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="C258" s="14"/>
+      <c r="C258" s="16" t="s">
+        <v>6</v>
+      </c>
       <c r="D258" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C259" s="14"/>
+      <c r="C259" s="16"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C260" s="14"/>
+      <c r="C260" s="16"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C261" s="14"/>
+      <c r="C261" s="16"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C262" s="14"/>
+      <c r="C262" s="16"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C263" s="14"/>
+      <c r="C263" s="16"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C264" s="14"/>
+      <c r="C264" s="16"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C265" s="14"/>
+      <c r="C265" s="16"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C266" s="14"/>
+      <c r="C266" s="16"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C267" s="14"/>
+      <c r="C267" s="16"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C268" s="14"/>
+      <c r="C268" s="16"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C269" s="14"/>
+      <c r="C269" s="16"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C270" s="14"/>
+      <c r="C270" s="16"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C271" s="14"/>
+      <c r="C271" s="16"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C272" s="14"/>
+      <c r="C272" s="16"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C273" s="14"/>
+      <c r="C273" s="16"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C274" s="14"/>
+      <c r="C274" s="16"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C275" s="14"/>
+      <c r="C275" s="16"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C276" s="14"/>
+      <c r="C276" s="16"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C277" s="14"/>
+      <c r="C277" s="16"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C278" s="14"/>
+      <c r="C278" s="16"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C279" s="14"/>
+      <c r="C279" s="16"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C280" s="14"/>
+      <c r="C280" s="16"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C281" s="14"/>
+      <c r="C281" s="16"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C282" s="14"/>
+      <c r="C282" s="16"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C283" s="14"/>
+      <c r="C283" s="16"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C284" s="14"/>
+      <c r="C284" s="16"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C285" s="14"/>
+      <c r="C285" s="16"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C286" s="14"/>
+      <c r="C286" s="16"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C287" s="14"/>
+      <c r="C287" s="16"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C288" s="14"/>
+      <c r="C288" s="16"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C289" s="14"/>
+      <c r="C289" s="16"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C290" s="14"/>
+      <c r="C290" s="16"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C291" s="14"/>
+      <c r="C291" s="16"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C292" s="14"/>
+      <c r="C292" s="16"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C293" s="14"/>
+      <c r="C293" s="16"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C294" s="14"/>
+      <c r="C294" s="16"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C295" s="14"/>
+      <c r="C295" s="16"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C296" s="14"/>
+      <c r="C296" s="16"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C297" s="14"/>
+      <c r="C297" s="16"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C298" s="14"/>
+      <c r="C298" s="16"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C299" s="14"/>
+      <c r="C299" s="16"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C300" s="14"/>
+      <c r="C300" s="16"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C301" s="14"/>
+      <c r="C301" s="16"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C302" s="14"/>
+      <c r="C302" s="16"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C303" s="14"/>
+      <c r="C303" s="16"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C304" s="14"/>
+      <c r="C304" s="16"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C305" s="14"/>
+      <c r="C305" s="16"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C306" s="14"/>
+      <c r="C306" s="16"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C307" s="14"/>
+      <c r="C307" s="16"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C308" s="14"/>
+      <c r="C308" s="16"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C309" s="14"/>
+      <c r="C309" s="16"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C310" s="14"/>
+      <c r="C310" s="16"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C311" s="14"/>
+      <c r="C311" s="16"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C312" s="14"/>
+      <c r="C312" s="16"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C313" s="14"/>
+      <c r="C313" s="16"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C314" s="14"/>
+      <c r="C314" s="16"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C315" s="14"/>
+      <c r="C315" s="16"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C316" s="14"/>
+      <c r="C316" s="16"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C317" s="14"/>
+      <c r="C317" s="16"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C318" s="14"/>
+      <c r="C318" s="16"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C319" s="14"/>
+      <c r="C319" s="16"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C320" s="14"/>
+      <c r="C320" s="16"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C321" s="14"/>
+      <c r="C321" s="16"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C322" s="14"/>
+      <c r="C322" s="16"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C323" s="14"/>
+      <c r="C323" s="16"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C324" s="14"/>
+      <c r="C324" s="16"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C325" s="14"/>
+      <c r="C325" s="16"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C326" s="14"/>
+      <c r="C326" s="16"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C327" s="14"/>
+      <c r="C327" s="16"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C328" s="14"/>
+      <c r="C328" s="16"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C329" s="14"/>
+      <c r="C329" s="16"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C330" s="14"/>
+      <c r="C330" s="16"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C331" s="14"/>
+      <c r="C331" s="16"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C332" s="14"/>
+      <c r="C332" s="16"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C333" s="14"/>
+      <c r="C333" s="16"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C334" s="14"/>
+      <c r="C334" s="16"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C335" s="14"/>
+      <c r="C335" s="16"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C336" s="14"/>
+      <c r="C336" s="16"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C337" s="14"/>
+      <c r="C337" s="16"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C338" s="14"/>
+      <c r="C338" s="16"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C339" s="14"/>
+      <c r="C339" s="16"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C340" s="14"/>
+      <c r="C340" s="16"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C341" s="14"/>
+      <c r="C341" s="16"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C342" s="14"/>
+      <c r="C342" s="16"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C343" s="14"/>
+      <c r="C343" s="16"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C344" s="14"/>
+      <c r="C344" s="16"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C345" s="14"/>
+      <c r="C345" s="16"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C346" s="14"/>
+      <c r="C346" s="16"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C347" s="14"/>
+      <c r="C347" s="16"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C348" s="14"/>
+      <c r="C348" s="16"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C349" s="14"/>
+      <c r="C349" s="16"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C350" s="14"/>
+      <c r="C350" s="16"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C351" s="14"/>
+      <c r="C351" s="16"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C352" s="14"/>
+      <c r="C352" s="16"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C353" s="14"/>
+      <c r="C353" s="16"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C354" s="14"/>
+      <c r="C354" s="16"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C355" s="14"/>
+      <c r="C355" s="16"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C356" s="14"/>
+      <c r="C356" s="16"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C357" s="14"/>
+      <c r="C357" s="16"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C358" s="14"/>
+      <c r="C358" s="16"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C359" s="14"/>
+      <c r="C359" s="16"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C360" s="14"/>
+      <c r="C360" s="16"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C361" s="14"/>
+      <c r="C361" s="16"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C362" s="14"/>
+      <c r="C362" s="16"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C363" s="14"/>
+      <c r="C363" s="16"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C364" s="14"/>
+      <c r="C364" s="16"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C365" s="14"/>
+      <c r="C365" s="16"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C366" s="14"/>
+      <c r="C366" s="16"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C367" s="14"/>
+      <c r="C367" s="16"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C368" s="14"/>
+      <c r="C368" s="16"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C369" s="14"/>
+      <c r="C369" s="16"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C370" s="14"/>
+      <c r="C370" s="16"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C371" s="14"/>
+      <c r="C371" s="16"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C372" s="14"/>
+      <c r="C372" s="16"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C373" s="14"/>
+      <c r="C373" s="16"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C374" s="14"/>
+      <c r="C374" s="16"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C375" s="14"/>
+      <c r="C375" s="16"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C376" s="14"/>
+      <c r="C376" s="16"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C377" s="14"/>
+      <c r="C377" s="16"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C378" s="14"/>
+      <c r="C378" s="16"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C379" s="14"/>
+      <c r="C379" s="16"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C380" s="14"/>
+      <c r="C380" s="16"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C381" s="14"/>
+      <c r="C381" s="16"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C382" s="14"/>
+      <c r="C382" s="16"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C383" s="14"/>
+      <c r="C383" s="16"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C384" s="14"/>
+      <c r="C384" s="16"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C385" s="14"/>
+      <c r="C385" s="16"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C386" s="14"/>
+      <c r="C386" s="16"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C387" s="14"/>
+      <c r="C387" s="16"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C388" s="14"/>
+      <c r="C388" s="16"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C389" s="14"/>
+      <c r="C389" s="16"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C390" s="14"/>
+      <c r="C390" s="16"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C391" s="14"/>
+      <c r="C391" s="16"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C392" s="14"/>
+      <c r="C392" s="16"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C393" s="14"/>
+      <c r="C393" s="16"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C394" s="14"/>
+      <c r="C394" s="16"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C395" s="14"/>
+      <c r="C395" s="16"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C396" s="14"/>
+      <c r="C396" s="16"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C397" s="14"/>
+      <c r="C397" s="16"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C398" s="14"/>
+      <c r="C398" s="16"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C399" s="14"/>
+      <c r="C399" s="16"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C400" s="14"/>
+      <c r="C400" s="16"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C401" s="14"/>
+      <c r="C401" s="16"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C402" s="14"/>
+      <c r="C402" s="16"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C403" s="14"/>
+      <c r="C403" s="16"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C404" s="14"/>
+      <c r="C404" s="16"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C405" s="14"/>
+      <c r="C405" s="16"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C406" s="14"/>
+      <c r="C406" s="16"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C407" s="14"/>
+      <c r="C407" s="16"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C408" s="14"/>
+      <c r="C408" s="16"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C409" s="14"/>
+      <c r="C409" s="16"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C410" s="14"/>
+      <c r="C410" s="16"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C411" s="14"/>
+      <c r="C411" s="16"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C412" s="14"/>
+      <c r="C412" s="16"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C413" s="14"/>
+      <c r="C413" s="16"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C414" s="14"/>
+      <c r="C414" s="16"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C415" s="14"/>
+      <c r="C415" s="16"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C416" s="14"/>
+      <c r="C416" s="16"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C417" s="14"/>
+      <c r="C417" s="16"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C418" s="14"/>
+      <c r="C418" s="16"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C419" s="14"/>
+      <c r="C419" s="16"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C420" s="14"/>
+      <c r="C420" s="16"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C421" s="14"/>
+      <c r="C421" s="16"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C422" s="14"/>
+      <c r="C422" s="16"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C423" s="14"/>
+      <c r="C423" s="16"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C424" s="14"/>
+      <c r="C424" s="16"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C425" s="14"/>
+      <c r="C425" s="16"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C426" s="14"/>
+      <c r="C426" s="16"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C427" s="14"/>
+      <c r="C427" s="16"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C428" s="14"/>
+      <c r="C428" s="16"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C429" s="14"/>
+      <c r="C429" s="16"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C430" s="14"/>
+      <c r="C430" s="16"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C431" s="14"/>
+      <c r="C431" s="16"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C432" s="14"/>
+      <c r="C432" s="16"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C433" s="14"/>
+      <c r="C433" s="16"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C434" s="14"/>
+      <c r="C434" s="16"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C435" s="14"/>
+      <c r="C435" s="16"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C436" s="14"/>
+      <c r="C436" s="16"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C437" s="14"/>
+      <c r="C437" s="16"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C438" s="14"/>
+      <c r="C438" s="16"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C439" s="14"/>
+      <c r="C439" s="16"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C440" s="14"/>
+      <c r="C440" s="16"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C441" s="14"/>
+      <c r="C441" s="16"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C442" s="14"/>
+      <c r="C442" s="16"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C443" s="14"/>
+      <c r="C443" s="16"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C444" s="14"/>
+      <c r="C444" s="16"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C445" s="14"/>
+      <c r="C445" s="16"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C446" s="14"/>
+      <c r="C446" s="16"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C447" s="14"/>
+      <c r="C447" s="16"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C448" s="14"/>
+      <c r="C448" s="16"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C449" s="14"/>
+      <c r="C449" s="16"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C450" s="14"/>
+      <c r="C450" s="16"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C451" s="14"/>
+      <c r="C451" s="16"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C452" s="14"/>
+      <c r="C452" s="16"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C453" s="14"/>
+      <c r="C453" s="16"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C454" s="14"/>
+      <c r="C454" s="16"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C455" s="14"/>
+      <c r="C455" s="16"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C456" s="14"/>
+      <c r="C456" s="16"/>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C457" s="14"/>
+      <c r="C457" s="16"/>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C458" s="15"/>
+      <c r="C458" s="16"/>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C459" s="15"/>
+      <c r="C459" s="16"/>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C460" s="15"/>
+      <c r="C460" s="16"/>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C461" s="15"/>
+      <c r="C461" s="16"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C462" s="15"/>
+      <c r="C462" s="16"/>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C463" s="15"/>
+      <c r="C463" s="16"/>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C464" s="15"/>
+      <c r="C464" s="16"/>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C465" s="15"/>
+      <c r="C465" s="16"/>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C466" s="15"/>
+      <c r="C466" s="16"/>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C467" s="15"/>
+      <c r="C467" s="16"/>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C468" s="15"/>
+      <c r="C468" s="16"/>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C469" s="15"/>
+      <c r="C469" s="16"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C470" s="15"/>
+      <c r="C470" s="16"/>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C471" s="15"/>
+      <c r="C471" s="16"/>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C472" s="15"/>
+      <c r="C472" s="16"/>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C473" s="15"/>
+      <c r="C473" s="16"/>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C474" s="15"/>
+      <c r="C474" s="16"/>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C475" s="15"/>
+      <c r="C475" s="16"/>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C476" s="15"/>
+      <c r="C476" s="16"/>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C477" s="15"/>
+      <c r="C477" s="16"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C478" s="15"/>
+      <c r="C478" s="16"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C479" s="15"/>
+      <c r="C479" s="16"/>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C480" s="15"/>
+      <c r="C480" s="16"/>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C481" s="15"/>
+      <c r="C481" s="16"/>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C482" s="15"/>
+      <c r="C482" s="16"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C483" s="15"/>
+      <c r="C483" s="16"/>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C484" s="15"/>
+      <c r="C484" s="16"/>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C485" s="15"/>
+      <c r="C485" s="16"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C486" s="15"/>
+      <c r="C486" s="16"/>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C487" s="15"/>
+      <c r="C487" s="16"/>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C488" s="15"/>
+      <c r="C488" s="16"/>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C489" s="15"/>
+      <c r="C489" s="16"/>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C490" s="15"/>
+      <c r="C490" s="16"/>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C491" s="15"/>
+      <c r="C491" s="16"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C492" s="15"/>
+      <c r="C492" s="16"/>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C493" s="15"/>
+      <c r="C493" s="16"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C494" s="15"/>
+      <c r="C494" s="16"/>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C495" s="15"/>
+      <c r="C495" s="16"/>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C496" s="15"/>
+      <c r="C496" s="16"/>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C497" s="15"/>
+      <c r="C497" s="16"/>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C498" s="15"/>
+      <c r="C498" s="16"/>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C499" s="15"/>
+      <c r="C499" s="16"/>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C500" s="15"/>
+      <c r="C500" s="16"/>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C501" s="15"/>
+      <c r="C501" s="16"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C502" s="15"/>
+      <c r="C502" s="16"/>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C503" s="15"/>
+      <c r="C503" s="16"/>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C504" s="15"/>
+      <c r="C504" s="16"/>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C505" s="15"/>
+      <c r="C505" s="16"/>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C506" s="15"/>
+      <c r="C506" s="16"/>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C507" s="15"/>
+      <c r="C507" s="16"/>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C508" s="15"/>
+      <c r="C508" s="16"/>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C509" s="15"/>
+      <c r="C509" s="16"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C510" s="15"/>
+      <c r="C510" s="16"/>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C511" s="15"/>
+      <c r="C511" s="16"/>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C512" s="15"/>
+      <c r="C512" s="16"/>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C513" s="15"/>
+      <c r="C513" s="16"/>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C514" s="15"/>
+      <c r="C514" s="16"/>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C515" s="15"/>
+      <c r="C515" s="16"/>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C516" s="15"/>
+      <c r="C516" s="16"/>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C517" s="15"/>
+      <c r="C517" s="16"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C518" s="15"/>
+      <c r="C518" s="16"/>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C519" s="15"/>
+      <c r="C519" s="16"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C520" s="15"/>
+      <c r="C520" s="16"/>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C521" s="15"/>
+      <c r="C521" s="16"/>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C522" s="15"/>
+      <c r="C522" s="16"/>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C523" s="15"/>
+      <c r="C523" s="16"/>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C524" s="15"/>
+      <c r="C524" s="16"/>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C525" s="15"/>
+      <c r="C525" s="16"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C526" s="15"/>
+      <c r="C526" s="16"/>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C527" s="15"/>
+      <c r="C527" s="16"/>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C528" s="15"/>
+      <c r="C528" s="16"/>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C529" s="15"/>
+      <c r="C529" s="16"/>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C530" s="15"/>
+      <c r="C530" s="16"/>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C531" s="15"/>
+      <c r="C531" s="16"/>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C532" s="15"/>
+      <c r="C532" s="16"/>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C533" s="15"/>
+      <c r="C533" s="16"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C534" s="15"/>
+      <c r="C534" s="16"/>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C535" s="15"/>
+      <c r="C535" s="16"/>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C536" s="15"/>
+      <c r="C536" s="16"/>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C537" s="15"/>
+      <c r="C537" s="16"/>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C538" s="15"/>
+      <c r="C538" s="16"/>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C539" s="15"/>
+      <c r="C539" s="16"/>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C540" s="15"/>
+      <c r="C540" s="16"/>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C541" s="15"/>
+      <c r="C541" s="16"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C542" s="15"/>
+      <c r="C542" s="16"/>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C543" s="15"/>
+      <c r="C543" s="16"/>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C544" s="15"/>
+      <c r="C544" s="16"/>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C545" s="15"/>
+      <c r="C545" s="16"/>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C546" s="15"/>
+      <c r="C546" s="16"/>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C547" s="15"/>
+      <c r="C547" s="16"/>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C548" s="15"/>
+      <c r="C548" s="16"/>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C549" s="15"/>
+      <c r="C549" s="16"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C550" s="15"/>
+      <c r="C550" s="16"/>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C551" s="15"/>
+      <c r="C551" s="16"/>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C552" s="15"/>
+      <c r="C552" s="16"/>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C553" s="15"/>
+      <c r="C553" s="16"/>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C554" s="15"/>
+      <c r="C554" s="16"/>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C555" s="15"/>
+      <c r="C555" s="16"/>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C556" s="15"/>
+      <c r="C556" s="16"/>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C557" s="15"/>
+      <c r="C557" s="16"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C558" s="15"/>
+      <c r="C558" s="16"/>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C559" s="15"/>
+      <c r="C559" s="16"/>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C560" s="15"/>
+      <c r="C560" s="16"/>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C561" s="15"/>
+      <c r="C561" s="16"/>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C562" s="15"/>
+      <c r="C562" s="16"/>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C563" s="15"/>
+      <c r="C563" s="16"/>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C564" s="15"/>
+      <c r="C564" s="16"/>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C565" s="15"/>
+      <c r="C565" s="16"/>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C566" s="15"/>
+      <c r="C566" s="16"/>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C567" s="15"/>
+      <c r="C567" s="16"/>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C568" s="15"/>
+      <c r="C568" s="16"/>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C569" s="15"/>
+      <c r="C569" s="16"/>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C570" s="15"/>
+      <c r="C570" s="16"/>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C571" s="15"/>
+      <c r="C571" s="16"/>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C572" s="15"/>
+      <c r="C572" s="16"/>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C573" s="15"/>
+      <c r="C573" s="16"/>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C574" s="15"/>
+      <c r="C574" s="16"/>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C575" s="15"/>
+      <c r="C575" s="16"/>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C576" s="15"/>
+      <c r="C576" s="16"/>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C577" s="15"/>
+      <c r="C577" s="16"/>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C578" s="15"/>
+      <c r="C578" s="16"/>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C579" s="15"/>
+      <c r="C579" s="16"/>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C580" s="15"/>
+      <c r="C580" s="16"/>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C581" s="15"/>
+      <c r="C581" s="16"/>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C582" s="15"/>
+      <c r="C582" s="16"/>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C583" s="15"/>
+      <c r="C583" s="16"/>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C584" s="15"/>
+      <c r="C584" s="16"/>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C585" s="15"/>
+      <c r="C585" s="16"/>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C586" s="15"/>
+      <c r="C586" s="16"/>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C587" s="15"/>
+      <c r="C587" s="16"/>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C588" s="15"/>
+      <c r="C588" s="16"/>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C589" s="15"/>
+      <c r="C589" s="16"/>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C590" s="15"/>
+      <c r="C590" s="16"/>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C591" s="15"/>
+      <c r="C591" s="16"/>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C592" s="15"/>
+      <c r="C592" s="16"/>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C593" s="15"/>
+      <c r="C593" s="16"/>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C594" s="15"/>
+      <c r="C594" s="16"/>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C595" s="15"/>
+      <c r="C595" s="16"/>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C596" s="15"/>
+      <c r="C596" s="16"/>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C597" s="15"/>
+      <c r="C597" s="16"/>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C598" s="15"/>
+      <c r="C598" s="16"/>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C599" s="15"/>
+      <c r="C599" s="16"/>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C600" s="15"/>
+      <c r="C600" s="16"/>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C601" s="15"/>
+      <c r="C601" s="16"/>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C602" s="15"/>
+      <c r="C602" s="16"/>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C603" s="15"/>
+      <c r="C603" s="16"/>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C604" s="15"/>
+      <c r="C604" s="16"/>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C605" s="15"/>
+      <c r="C605" s="16"/>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C606" s="15"/>
+      <c r="C606" s="16"/>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C607" s="15"/>
+      <c r="C607" s="16"/>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C608" s="15"/>
+      <c r="C608" s="16"/>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C609" s="15"/>
+      <c r="C609" s="16"/>
     </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C610" s="15"/>
+      <c r="C610" s="16"/>
     </row>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C611" s="15"/>
+      <c r="C611" s="16"/>
     </row>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C612" s="15"/>
+      <c r="C612" s="16"/>
     </row>
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C613" s="15"/>
+      <c r="C613" s="16"/>
     </row>
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C614" s="15"/>
+      <c r="C614" s="16"/>
     </row>
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C615" s="15"/>
+      <c r="C615" s="16"/>
     </row>
     <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C616" s="15"/>
+      <c r="C616" s="16"/>
     </row>
     <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C617" s="15"/>
+      <c r="C617" s="16"/>
     </row>
     <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C618" s="15"/>
+      <c r="C618" s="16"/>
     </row>
     <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C619" s="15"/>
+      <c r="C619" s="16"/>
     </row>
     <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C620" s="15"/>
+      <c r="C620" s="16"/>
     </row>
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C621" s="15"/>
+      <c r="C621" s="16"/>
     </row>
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C622" s="15"/>
+      <c r="C622" s="16"/>
     </row>
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C623" s="15"/>
+      <c r="C623" s="16"/>
     </row>
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C624" s="15"/>
+      <c r="C624" s="16"/>
     </row>
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C625" s="15"/>
+      <c r="C625" s="16"/>
     </row>
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C626" s="15"/>
+      <c r="C626" s="16"/>
     </row>
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C627" s="15"/>
+      <c r="C627" s="16"/>
     </row>
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C628" s="15"/>
+      <c r="C628" s="16"/>
     </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C629" s="15"/>
+      <c r="C629" s="16"/>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C630" s="15"/>
+      <c r="C630" s="16"/>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C631" s="15"/>
+      <c r="C631" s="16"/>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C632" s="15"/>
+      <c r="C632" s="16"/>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C633" s="15"/>
+      <c r="C633" s="16"/>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C634" s="15"/>
+      <c r="C634" s="16"/>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C635" s="15"/>
+      <c r="C635" s="16"/>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C636" s="15"/>
+      <c r="C636" s="16"/>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C637" s="15"/>
+      <c r="C637" s="16"/>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C638" s="15"/>
+      <c r="C638" s="16"/>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C639" s="15"/>
+      <c r="C639" s="16"/>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C640" s="15"/>
+      <c r="C640" s="16"/>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C641" s="15"/>
+      <c r="C641" s="16"/>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C642" s="15"/>
+      <c r="C642" s="16"/>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C643" s="15"/>
+      <c r="C643" s="16"/>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C644" s="15"/>
+      <c r="C644" s="16"/>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C645" s="15"/>
+      <c r="C645" s="16"/>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C646" s="15"/>
+      <c r="C646" s="16"/>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C647" s="15"/>
+      <c r="C647" s="16"/>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C648" s="15"/>
+      <c r="C648" s="16"/>
     </row>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C649" s="15"/>
+      <c r="C649" s="16"/>
     </row>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C650" s="15"/>
+      <c r="C650" s="16"/>
     </row>
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C651" s="15"/>
+      <c r="C651" s="16"/>
     </row>
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C652" s="15"/>
+      <c r="C652" s="16"/>
     </row>
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C653" s="15"/>
+      <c r="C653" s="16"/>
     </row>
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C654" s="15"/>
+      <c r="C654" s="16"/>
     </row>
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C655" s="15"/>
+      <c r="C655" s="16"/>
     </row>
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C656" s="15"/>
+      <c r="C656" s="16"/>
     </row>
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C657" s="15"/>
+      <c r="C657" s="16"/>
     </row>
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C658" s="15"/>
+      <c r="C658" s="16"/>
     </row>
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C659" s="15"/>
+      <c r="C659" s="16"/>
     </row>
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C660" s="15"/>
+      <c r="C660" s="16"/>
     </row>
     <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C661" s="15"/>
+      <c r="C661" s="16"/>
     </row>
     <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C662" s="15"/>
+      <c r="C662" s="16"/>
     </row>
     <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C663" s="15"/>
+      <c r="C663" s="16"/>
     </row>
     <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C664" s="15"/>
+      <c r="C664" s="16"/>
     </row>
     <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C665" s="15"/>
+      <c r="C665" s="16"/>
     </row>
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C666" s="15"/>
+      <c r="C666" s="16"/>
     </row>
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C667" s="15"/>
+      <c r="C667" s="16"/>
     </row>
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C668" s="15"/>
+      <c r="C668" s="16"/>
     </row>
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C669" s="15"/>
+      <c r="C669" s="16"/>
     </row>
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C670" s="15"/>
+      <c r="C670" s="16"/>
     </row>
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C671" s="15"/>
+      <c r="C671" s="16"/>
     </row>
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C672" s="15"/>
+      <c r="C672" s="16"/>
     </row>
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C673" s="15"/>
+      <c r="C673" s="16"/>
     </row>
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C674" s="15"/>
+      <c r="C674" s="16"/>
     </row>
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C675" s="15"/>
+      <c r="C675" s="16"/>
     </row>
     <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C676" s="15"/>
+      <c r="C676" s="16"/>
     </row>
     <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C677" s="15"/>
+      <c r="C677" s="16"/>
     </row>
     <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C678" s="15"/>
+      <c r="C678" s="16"/>
     </row>
     <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C679" s="15"/>
+      <c r="C679" s="16"/>
     </row>
     <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C680" s="15"/>
+      <c r="C680" s="16"/>
     </row>
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C681" s="15"/>
+      <c r="C681" s="16"/>
     </row>
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C682" s="15"/>
+      <c r="C682" s="16"/>
     </row>
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C683" s="15"/>
+      <c r="C683" s="16"/>
     </row>
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C684" s="15"/>
+      <c r="C684" s="16"/>
     </row>
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C685" s="15"/>
+      <c r="C685" s="16"/>
     </row>
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C686" s="15"/>
+      <c r="C686" s="16"/>
     </row>
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C687" s="15"/>
+      <c r="C687" s="16"/>
     </row>
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C688" s="15"/>
+      <c r="C688" s="16"/>
     </row>
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C689" s="15"/>
+      <c r="C689" s="16"/>
     </row>
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C690" s="15"/>
+      <c r="C690" s="16"/>
     </row>
     <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C691" s="15"/>
+      <c r="C691" s="16"/>
     </row>
     <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C692" s="15"/>
+      <c r="C692" s="16"/>
     </row>
     <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C693" s="15"/>
+      <c r="C693" s="16"/>
     </row>
     <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C694" s="15"/>
+      <c r="C694" s="16"/>
     </row>
     <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C695" s="15"/>
+      <c r="C695" s="16"/>
     </row>
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C696" s="15"/>
+      <c r="C696" s="16"/>
     </row>
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C697" s="15"/>
+      <c r="C697" s="16"/>
     </row>
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C698" s="15"/>
+      <c r="C698" s="16"/>
     </row>
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C699" s="15"/>
+      <c r="C699" s="16"/>
     </row>
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C700" s="15"/>
+      <c r="C700" s="16"/>
     </row>
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C701" s="15"/>
+      <c r="C701" s="16"/>
     </row>
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C702" s="15"/>
+      <c r="C702" s="16"/>
     </row>
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C703" s="15"/>
+      <c r="C703" s="16"/>
     </row>
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C704" s="15"/>
+      <c r="C704" s="16"/>
     </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C705" s="15"/>
+      <c r="C705" s="16"/>
     </row>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C706" s="15"/>
+      <c r="C706" s="16"/>
     </row>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C707" s="15"/>
+      <c r="C707" s="16"/>
     </row>
     <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C708" s="15"/>
+      <c r="C708" s="16"/>
     </row>
     <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C709" s="15"/>
+      <c r="C709" s="16"/>
     </row>
     <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C710" s="15"/>
+      <c r="C710" s="16"/>
     </row>
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C711" s="15"/>
+      <c r="C711" s="16"/>
     </row>
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C712" s="15"/>
+      <c r="C712" s="16"/>
     </row>
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C713" s="15"/>
+      <c r="C713" s="16"/>
     </row>
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C714" s="15"/>
+      <c r="C714" s="16"/>
     </row>
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C715" s="15"/>
+      <c r="C715" s="16"/>
     </row>
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C716" s="15"/>
+      <c r="C716" s="16"/>
     </row>
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C717" s="15"/>
+      <c r="C717" s="16"/>
     </row>
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C718" s="15"/>
+      <c r="C718" s="16"/>
     </row>
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C719" s="15"/>
+      <c r="C719" s="16"/>
     </row>
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C720" s="15"/>
+      <c r="C720" s="16"/>
     </row>
     <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C721" s="15"/>
+      <c r="C721" s="16"/>
     </row>
     <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C722" s="15"/>
+      <c r="C722" s="16"/>
     </row>
     <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C723" s="15"/>
+      <c r="C723" s="16"/>
     </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C724" s="15"/>
+      <c r="C724" s="16"/>
     </row>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C725" s="15"/>
+      <c r="C725" s="16"/>
     </row>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C726" s="15"/>
+      <c r="C726" s="16"/>
     </row>
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C727" s="15"/>
+      <c r="C727" s="16"/>
     </row>
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C728" s="15"/>
+      <c r="C728" s="16"/>
     </row>
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C729" s="15"/>
+      <c r="C729" s="16"/>
     </row>
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C730" s="15"/>
+      <c r="C730" s="16"/>
     </row>
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C731" s="15"/>
+      <c r="C731" s="16"/>
     </row>
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C732" s="15"/>
+      <c r="C732" s="16"/>
     </row>
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C733" s="15"/>
+      <c r="C733" s="16"/>
     </row>
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C734" s="15"/>
+      <c r="C734" s="16"/>
     </row>
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C735" s="15"/>
+      <c r="C735" s="16"/>
     </row>
     <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C736" s="15"/>
+      <c r="C736" s="16"/>
     </row>
     <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C737" s="15"/>
+      <c r="C737" s="16"/>
     </row>
     <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C738" s="15"/>
+      <c r="C738" s="16"/>
     </row>
     <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C739" s="15"/>
+      <c r="C739" s="16"/>
     </row>
     <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C740" s="15"/>
+      <c r="C740" s="16"/>
     </row>
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C741" s="15"/>
+      <c r="C741" s="16"/>
     </row>
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C742" s="15"/>
+      <c r="C742" s="16"/>
     </row>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C743" s="15"/>
+      <c r="C743" s="16"/>
     </row>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C744" s="15"/>
+      <c r="C744" s="16"/>
     </row>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C745" s="15"/>
+      <c r="C745" s="16"/>
     </row>
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C746" s="15"/>
+      <c r="C746" s="16"/>
     </row>
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C747" s="15"/>
+      <c r="C747" s="16"/>
     </row>
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C748" s="15"/>
+      <c r="C748" s="16"/>
     </row>
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C749" s="15"/>
+      <c r="C749" s="16"/>
     </row>
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C750" s="15"/>
+      <c r="C750" s="16"/>
     </row>
     <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C751" s="15"/>
+      <c r="C751" s="16"/>
     </row>
     <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C752" s="15"/>
+      <c r="C752" s="16"/>
     </row>
     <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C753" s="15"/>
+      <c r="C753" s="16"/>
     </row>
     <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C754" s="15"/>
+      <c r="C754" s="16"/>
     </row>
     <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C755" s="15"/>
+      <c r="C755" s="16"/>
     </row>
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C756" s="15"/>
+      <c r="C756" s="16"/>
     </row>
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C757" s="15"/>
+      <c r="C757" s="16"/>
     </row>
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C758" s="15"/>
+      <c r="C758" s="16"/>
     </row>
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C759" s="15"/>
+      <c r="C759" s="16"/>
     </row>
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C760" s="15"/>
+      <c r="C760" s="16"/>
     </row>
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C761" s="15"/>
+      <c r="C761" s="16"/>
     </row>
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C762" s="15"/>
+      <c r="C762" s="16"/>
     </row>
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C763" s="15"/>
+      <c r="C763" s="16"/>
     </row>
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C764" s="15"/>
+      <c r="C764" s="16"/>
     </row>
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C765" s="15"/>
+      <c r="C765" s="16"/>
     </row>
     <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C766" s="15"/>
+      <c r="C766" s="16"/>
     </row>
     <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C767" s="15"/>
+      <c r="C767" s="16"/>
     </row>
     <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C768" s="15"/>
+      <c r="C768" s="16"/>
     </row>
     <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C769" s="15"/>
+      <c r="C769" s="16"/>
     </row>
     <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C770" s="15"/>
+      <c r="C770" s="16"/>
     </row>
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C771" s="15"/>
+      <c r="C771" s="16"/>
     </row>
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C772" s="15"/>
+      <c r="C772" s="16"/>
     </row>
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C773" s="15"/>
+      <c r="C773" s="16"/>
     </row>
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C774" s="15"/>
+      <c r="C774" s="16"/>
     </row>
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C775" s="15"/>
+      <c r="C775" s="16"/>
     </row>
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C776" s="15"/>
+      <c r="C776" s="16"/>
     </row>
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C777" s="15"/>
+      <c r="C777" s="16"/>
     </row>
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C778" s="15"/>
+      <c r="C778" s="16"/>
     </row>
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C779" s="15"/>
+      <c r="C779" s="16"/>
     </row>
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C780" s="15"/>
+      <c r="C780" s="16"/>
     </row>
     <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C781" s="15"/>
+      <c r="C781" s="16"/>
     </row>
     <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C782" s="15"/>
+      <c r="C782" s="16"/>
     </row>
     <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C783" s="15"/>
+      <c r="C783" s="16"/>
     </row>
     <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C784" s="15"/>
+      <c r="C784" s="16"/>
     </row>
     <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C785" s="15"/>
+      <c r="C785" s="16"/>
     </row>
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C786" s="15"/>
+      <c r="C786" s="16"/>
     </row>
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C787" s="15"/>
+      <c r="C787" s="16"/>
     </row>
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C788" s="15"/>
+      <c r="C788" s="16"/>
     </row>
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C789" s="15"/>
+      <c r="C789" s="16"/>
     </row>
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C790" s="15"/>
+      <c r="C790" s="16"/>
     </row>
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C791" s="15"/>
+      <c r="C791" s="16"/>
     </row>
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C792" s="15"/>
+      <c r="C792" s="16"/>
     </row>
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C793" s="15"/>
+      <c r="C793" s="16"/>
     </row>
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C794" s="15"/>
+      <c r="C794" s="16"/>
     </row>
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C795" s="15"/>
+      <c r="C795" s="16"/>
     </row>
     <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C796" s="15"/>
+      <c r="C796" s="16"/>
     </row>
     <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C797" s="15"/>
+      <c r="C797" s="16"/>
     </row>
     <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C798" s="15"/>
+      <c r="C798" s="16"/>
     </row>
     <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C799" s="15"/>
+      <c r="C799" s="16"/>
     </row>
     <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C800" s="15"/>
+      <c r="C800" s="16"/>
     </row>
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C801" s="15"/>
+      <c r="C801" s="16"/>
     </row>
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C802" s="15"/>
+      <c r="C802" s="16"/>
     </row>
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C803" s="15"/>
+      <c r="C803" s="16"/>
     </row>
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C804" s="15"/>
+      <c r="C804" s="16"/>
     </row>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C805" s="15"/>
+      <c r="C805" s="16"/>
     </row>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C806" s="15"/>
+      <c r="C806" s="16"/>
     </row>
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C807" s="15"/>
+      <c r="C807" s="16"/>
     </row>
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C808" s="15"/>
+      <c r="C808" s="16"/>
     </row>
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C809" s="15"/>
+      <c r="C809" s="16"/>
     </row>
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C810" s="15"/>
+      <c r="C810" s="16"/>
     </row>
     <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C811" s="15"/>
+      <c r="C811" s="16"/>
     </row>
     <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C812" s="15"/>
+      <c r="C812" s="16"/>
     </row>
     <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C813" s="15"/>
+      <c r="C813" s="16"/>
     </row>
     <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C814" s="15"/>
+      <c r="C814" s="16"/>
     </row>
     <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C815" s="15"/>
+      <c r="C815" s="16"/>
     </row>
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C816" s="15"/>
+      <c r="C816" s="16"/>
     </row>
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C817" s="15"/>
+      <c r="C817" s="16"/>
     </row>
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C818" s="15"/>
+      <c r="C818" s="16"/>
     </row>
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C819" s="15"/>
+      <c r="C819" s="16"/>
     </row>
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C820" s="15"/>
+      <c r="C820" s="16"/>
     </row>
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C821" s="15"/>
+      <c r="C821" s="16"/>
     </row>
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C822" s="15"/>
+      <c r="C822" s="16"/>
     </row>
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C823" s="15"/>
+      <c r="C823" s="16"/>
     </row>
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C824" s="15"/>
+      <c r="C824" s="16"/>
     </row>
     <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C825" s="15"/>
+      <c r="C825" s="16"/>
     </row>
     <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C826" s="15"/>
+      <c r="C826" s="16"/>
     </row>
     <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C827" s="15"/>
+      <c r="C827" s="16"/>
     </row>
     <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C828" s="15"/>
+      <c r="C828" s="16"/>
     </row>
     <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C829" s="15"/>
+      <c r="C829" s="16"/>
     </row>
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C830" s="15"/>
+      <c r="C830" s="16"/>
     </row>
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C831" s="15"/>
+      <c r="C831" s="16"/>
     </row>
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C832" s="15"/>
+      <c r="C832" s="16"/>
     </row>
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C833" s="15"/>
+      <c r="C833" s="16"/>
     </row>
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C834" s="15"/>
+      <c r="C834" s="16"/>
     </row>
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C835" s="15"/>
+      <c r="C835" s="16"/>
     </row>
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C836" s="15"/>
+      <c r="C836" s="16"/>
     </row>
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C837" s="15"/>
+      <c r="C837" s="16"/>
     </row>
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C838" s="15"/>
+      <c r="C838" s="16"/>
     </row>
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C839" s="15"/>
+      <c r="C839" s="16"/>
     </row>
     <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C840" s="15"/>
+      <c r="C840" s="16"/>
     </row>
     <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C841" s="15"/>
+      <c r="C841" s="16"/>
     </row>
     <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C842" s="15"/>
+      <c r="C842" s="16"/>
     </row>
     <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C843" s="15"/>
+      <c r="C843" s="16"/>
     </row>
     <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C844" s="15"/>
+      <c r="C844" s="16"/>
     </row>
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C845" s="15"/>
+      <c r="C845" s="16"/>
     </row>
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C846" s="15"/>
+      <c r="C846" s="16"/>
     </row>
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C847" s="15"/>
+      <c r="C847" s="16"/>
     </row>
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C848" s="15"/>
+      <c r="C848" s="16"/>
     </row>
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C849" s="15"/>
+      <c r="C849" s="16"/>
     </row>
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C850" s="15"/>
+      <c r="C850" s="16"/>
     </row>
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C851" s="15"/>
+      <c r="C851" s="16"/>
     </row>
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C852" s="15"/>
+      <c r="C852" s="16"/>
     </row>
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C853" s="15"/>
+      <c r="C853" s="16"/>
     </row>
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C854" s="15"/>
+      <c r="C854" s="16"/>
     </row>
     <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C855" s="15"/>
+      <c r="C855" s="16"/>
     </row>
     <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C856" s="15"/>
+      <c r="C856" s="16"/>
     </row>
     <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C857" s="15"/>
+      <c r="C857" s="16"/>
     </row>
     <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C858" s="15"/>
+      <c r="C858" s="16"/>
     </row>
     <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C859" s="15"/>
+      <c r="C859" s="16"/>
     </row>
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C860" s="15"/>
+      <c r="C860" s="16"/>
     </row>
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C861" s="15"/>
+      <c r="C861" s="16"/>
     </row>
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C862" s="15"/>
+      <c r="C862" s="16"/>
     </row>
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C863" s="15"/>
+      <c r="C863" s="16"/>
     </row>
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C864" s="15"/>
+      <c r="C864" s="16"/>
     </row>
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C865" s="15"/>
+      <c r="C865" s="16"/>
     </row>
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C866" s="15"/>
+      <c r="C866" s="16"/>
     </row>
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C867" s="15"/>
+      <c r="C867" s="16"/>
     </row>
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C868" s="15"/>
+      <c r="C868" s="16"/>
     </row>
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C869" s="15"/>
+      <c r="C869" s="16"/>
     </row>
     <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C870" s="15"/>
+      <c r="C870" s="16"/>
     </row>
     <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C871" s="15"/>
+      <c r="C871" s="16"/>
     </row>
     <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C872" s="15"/>
+      <c r="C872" s="16"/>
     </row>
     <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C873" s="15"/>
+      <c r="C873" s="16"/>
     </row>
     <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C874" s="15"/>
+      <c r="C874" s="16"/>
     </row>
     <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C875" s="15"/>
+      <c r="C875" s="16"/>
     </row>
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C876" s="15"/>
+      <c r="C876" s="16"/>
     </row>
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C877" s="15"/>
+      <c r="C877" s="16"/>
     </row>
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C878" s="15"/>
+      <c r="C878" s="16"/>
     </row>
     <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C879" s="15"/>
+      <c r="C879" s="16"/>
     </row>
     <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C880" s="15"/>
+      <c r="C880" s="16"/>
     </row>
     <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C881" s="15"/>
+      <c r="C881" s="16"/>
     </row>
     <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C882" s="15"/>
+      <c r="C882" s="16"/>
     </row>
     <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C883" s="15"/>
+      <c r="C883" s="16"/>
     </row>
     <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C884" s="15"/>
+      <c r="C884" s="16"/>
     </row>
     <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C885" s="15"/>
+      <c r="C885" s="16"/>
     </row>
     <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C886" s="15"/>
+      <c r="C886" s="16"/>
     </row>
     <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C887" s="15"/>
+      <c r="C887" s="16"/>
     </row>
     <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C888" s="15"/>
+      <c r="C888" s="16"/>
     </row>
     <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C889" s="15"/>
+      <c r="C889" s="16"/>
     </row>
     <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C890" s="15"/>
+      <c r="C890" s="16"/>
     </row>
     <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C891" s="15"/>
+      <c r="C891" s="16"/>
     </row>
     <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C892" s="15"/>
+      <c r="C892" s="16"/>
     </row>
     <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C893" s="15"/>
+      <c r="C893" s="16"/>
     </row>
     <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C894" s="15"/>
+      <c r="C894" s="16"/>
     </row>
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C895" s="15"/>
+      <c r="C895" s="16"/>
     </row>
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C896" s="15"/>
+      <c r="C896" s="16"/>
     </row>
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C897" s="15"/>
+      <c r="C897" s="16"/>
     </row>
     <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C898" s="15"/>
+      <c r="C898" s="16"/>
     </row>
     <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C899" s="15"/>
+      <c r="C899" s="16"/>
     </row>
     <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C900" s="15"/>
+      <c r="C900" s="16"/>
     </row>
     <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C901" s="15"/>
+      <c r="C901" s="16"/>
     </row>
     <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C902" s="15"/>
+      <c r="C902" s="16"/>
     </row>
     <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C903" s="15"/>
+      <c r="C903" s="16"/>
     </row>
     <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C904" s="15"/>
+      <c r="C904" s="16"/>
     </row>
     <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C905" s="15"/>
+      <c r="C905" s="16"/>
     </row>
     <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C906" s="15"/>
+      <c r="C906" s="16"/>
     </row>
     <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C907" s="15"/>
+      <c r="C907" s="16"/>
     </row>
     <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C908" s="15"/>
+      <c r="C908" s="16"/>
     </row>
     <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C909" s="15"/>
+      <c r="C909" s="16"/>
     </row>
     <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C910" s="15"/>
+      <c r="C910" s="16"/>
     </row>
     <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C911" s="15"/>
+      <c r="C911" s="16"/>
     </row>
     <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C912" s="15"/>
+      <c r="C912" s="16"/>
     </row>
     <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C913" s="15"/>
+      <c r="C913" s="16"/>
     </row>
     <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C914" s="15"/>
+      <c r="C914" s="16"/>
     </row>
     <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C915" s="15"/>
+      <c r="C915" s="16"/>
     </row>
     <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C916" s="15"/>
+      <c r="C916" s="16"/>
     </row>
     <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C917" s="15"/>
+      <c r="C917" s="16"/>
     </row>
     <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C918" s="15"/>
+      <c r="C918" s="16"/>
     </row>
     <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C919" s="15"/>
+      <c r="C919" s="16"/>
     </row>
     <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C920" s="15"/>
+      <c r="C920" s="16"/>
     </row>
     <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C921" s="15"/>
+      <c r="C921" s="16"/>
     </row>
     <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C922" s="15"/>
+      <c r="C922" s="16"/>
     </row>
     <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C923" s="15"/>
+      <c r="C923" s="16"/>
     </row>
     <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C924" s="15"/>
+      <c r="C924" s="16"/>
     </row>
     <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C925" s="15"/>
+      <c r="C925" s="16"/>
     </row>
     <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C926" s="15"/>
+      <c r="C926" s="16"/>
     </row>
     <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C927" s="15"/>
+      <c r="C927" s="16"/>
     </row>
     <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C928" s="15"/>
+      <c r="C928" s="16"/>
     </row>
     <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C929" s="15"/>
+      <c r="C929" s="16"/>
     </row>
     <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C930" s="15"/>
+      <c r="C930" s="16"/>
     </row>
     <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C931" s="15"/>
+      <c r="C931" s="16"/>
     </row>
     <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C932" s="15"/>
+      <c r="C932" s="16"/>
     </row>
     <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C933" s="15"/>
+      <c r="C933" s="16"/>
     </row>
     <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C934" s="15"/>
+      <c r="C934" s="16"/>
     </row>
     <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C935" s="15"/>
+      <c r="C935" s="16"/>
     </row>
     <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C936" s="15"/>
+      <c r="C936" s="16"/>
     </row>
     <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C937" s="15"/>
+      <c r="C937" s="16"/>
     </row>
     <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C938" s="15"/>
+      <c r="C938" s="16"/>
     </row>
     <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C939" s="15"/>
+      <c r="C939" s="16"/>
     </row>
     <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C940" s="15"/>
+      <c r="C940" s="16"/>
     </row>
     <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C941" s="15"/>
+      <c r="C941" s="16"/>
     </row>
     <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C942" s="15"/>
+      <c r="C942" s="16"/>
     </row>
     <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C943" s="15"/>
+      <c r="C943" s="16"/>
     </row>
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C944" s="15"/>
+      <c r="C944" s="16"/>
     </row>
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C945" s="15"/>
+      <c r="C945" s="16"/>
     </row>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C946" s="15"/>
+      <c r="C946" s="16"/>
     </row>
     <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C947" s="15"/>
+      <c r="C947" s="16"/>
     </row>
     <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C948" s="15"/>
+      <c r="C948" s="16"/>
     </row>
     <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C949" s="15"/>
+      <c r="C949" s="16"/>
     </row>
     <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C950" s="15"/>
+      <c r="C950" s="16"/>
     </row>
     <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C951" s="15"/>
+      <c r="C951" s="16"/>
     </row>
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C952" s="15"/>
+      <c r="C952" s="16"/>
     </row>
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C953" s="15"/>
+      <c r="C953" s="16"/>
     </row>
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C954" s="15"/>
+      <c r="C954" s="16"/>
     </row>
     <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C955" s="15"/>
+      <c r="C955" s="16"/>
     </row>
     <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C956" s="15"/>
+      <c r="C956" s="16"/>
     </row>
     <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C957" s="15"/>
+      <c r="C957" s="16"/>
     </row>
     <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C958" s="15"/>
+      <c r="C958" s="16"/>
     </row>
     <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C959" s="15"/>
+      <c r="C959" s="16"/>
     </row>
     <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C960" s="15"/>
+      <c r="C960" s="16"/>
     </row>
     <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C961" s="15"/>
+      <c r="C961" s="16"/>
     </row>
     <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C962" s="15"/>
+      <c r="C962" s="16"/>
     </row>
     <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C963" s="15"/>
+      <c r="C963" s="16"/>
     </row>
     <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C964" s="15"/>
+      <c r="C964" s="16"/>
     </row>
     <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C965" s="15"/>
+      <c r="C965" s="16"/>
     </row>
     <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C966" s="15"/>
+      <c r="C966" s="16"/>
     </row>
     <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C967" s="15"/>
+      <c r="C967" s="16"/>
     </row>
     <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C968" s="15"/>
+      <c r="C968" s="16"/>
     </row>
     <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C969" s="15"/>
+      <c r="C969" s="16"/>
     </row>
     <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C970" s="15"/>
+      <c r="C970" s="16"/>
     </row>
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C971" s="15"/>
+      <c r="C971" s="16"/>
     </row>
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C972" s="15"/>
+      <c r="C972" s="16"/>
     </row>
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C973" s="15"/>
+      <c r="C973" s="16"/>
     </row>
     <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C974" s="15"/>
+      <c r="C974" s="16"/>
     </row>
     <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C975" s="15"/>
+      <c r="C975" s="16"/>
     </row>
     <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C976" s="15"/>
+      <c r="C976" s="16"/>
     </row>
     <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C977" s="15"/>
+      <c r="C977" s="16"/>
     </row>
     <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C978" s="15"/>
+      <c r="C978" s="16"/>
     </row>
     <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C979" s="15"/>
+      <c r="C979" s="16"/>
     </row>
     <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C980" s="15"/>
+      <c r="C980" s="16"/>
     </row>
     <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C981" s="15"/>
+      <c r="C981" s="16"/>
     </row>
     <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C982" s="15"/>
+      <c r="C982" s="16"/>
     </row>
     <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C983" s="15"/>
+      <c r="C983" s="16"/>
     </row>
     <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C984" s="15"/>
+      <c r="C984" s="16"/>
     </row>
     <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C985" s="15"/>
+      <c r="C985" s="16"/>
     </row>
     <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C986" s="15"/>
+      <c r="C986" s="16"/>
     </row>
     <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C987" s="15"/>
+      <c r="C987" s="16"/>
     </row>
     <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C988" s="15"/>
+      <c r="C988" s="16"/>
     </row>
     <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C989" s="15"/>
+      <c r="C989" s="16"/>
     </row>
     <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C990" s="15"/>
+      <c r="C990" s="16"/>
     </row>
     <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C991" s="15"/>
+      <c r="C991" s="16"/>
     </row>
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C992" s="15"/>
+      <c r="C992" s="16"/>
     </row>
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C993" s="15"/>
+      <c r="C993" s="16"/>
     </row>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C994" s="15"/>
+      <c r="C994" s="16"/>
     </row>
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C995" s="15"/>
+      <c r="C995" s="16"/>
     </row>
     <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C996" s="15"/>
+      <c r="C996" s="16"/>
     </row>
     <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C997" s="15"/>
+      <c r="C997" s="16"/>
     </row>
     <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C998" s="15"/>
+      <c r="C998" s="16"/>
     </row>
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C999" s="15"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C999" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:B7"/>
